--- a/协议命令.xlsx
+++ b/协议命令.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="486" uniqueCount="199">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="488" uniqueCount="201">
   <si>
     <t>协议格式</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -815,6 +815,14 @@
   </si>
   <si>
     <t>xx</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>是否开启自供电</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0---关闭，1---开启</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -947,6 +955,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -956,17 +973,8 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1459,207 +1467,207 @@
         <v>14</v>
       </c>
       <c r="C6" s="3"/>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="E6" s="11"/>
-      <c r="F6" s="11"/>
-      <c r="H6" s="11" t="s">
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="H6" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="I6" s="11"/>
-      <c r="J6" s="11"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="15" t="s">
         <v>51</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D7" s="10" t="s">
+      <c r="D7" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="10"/>
-      <c r="F7" s="10"/>
-      <c r="H7" s="10" t="s">
+      <c r="E7" s="13"/>
+      <c r="F7" s="13"/>
+      <c r="H7" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="I7" s="10"/>
-      <c r="J7" s="10"/>
+      <c r="I7" s="13"/>
+      <c r="J7" s="13"/>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A8" s="12"/>
+      <c r="A8" s="15"/>
       <c r="B8" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D8" s="10" t="s">
+      <c r="D8" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="E8" s="10"/>
-      <c r="F8" s="10"/>
-      <c r="H8" s="10" t="s">
+      <c r="E8" s="13"/>
+      <c r="F8" s="13"/>
+      <c r="H8" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="I8" s="10"/>
-      <c r="J8" s="10"/>
+      <c r="I8" s="13"/>
+      <c r="J8" s="13"/>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A9" s="12"/>
+      <c r="A9" s="15"/>
       <c r="B9" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D9" s="10" t="s">
+      <c r="D9" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="E9" s="10"/>
-      <c r="F9" s="10"/>
-      <c r="H9" s="10" t="s">
+      <c r="E9" s="13"/>
+      <c r="F9" s="13"/>
+      <c r="H9" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="I9" s="10"/>
-      <c r="J9" s="10"/>
+      <c r="I9" s="13"/>
+      <c r="J9" s="13"/>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A10" s="12"/>
+      <c r="A10" s="15"/>
       <c r="B10" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D10" s="10" t="s">
+      <c r="D10" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="E10" s="10"/>
-      <c r="F10" s="10"/>
-      <c r="H10" s="10" t="s">
+      <c r="E10" s="13"/>
+      <c r="F10" s="13"/>
+      <c r="H10" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="I10" s="10"/>
-      <c r="J10" s="10"/>
+      <c r="I10" s="13"/>
+      <c r="J10" s="13"/>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A11" s="12"/>
+      <c r="A11" s="15"/>
       <c r="B11" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D11" s="10" t="s">
+      <c r="D11" s="13" t="s">
         <v>38</v>
       </c>
-      <c r="E11" s="10"/>
-      <c r="F11" s="10"/>
-      <c r="H11" s="10" t="s">
+      <c r="E11" s="13"/>
+      <c r="F11" s="13"/>
+      <c r="H11" s="13" t="s">
         <v>74</v>
       </c>
-      <c r="I11" s="10"/>
-      <c r="J11" s="10"/>
+      <c r="I11" s="13"/>
+      <c r="J11" s="13"/>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A12" s="12"/>
+      <c r="A12" s="15"/>
       <c r="B12" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D12" s="10" t="s">
+      <c r="D12" s="13" t="s">
         <v>39</v>
       </c>
-      <c r="E12" s="10"/>
-      <c r="F12" s="10"/>
-      <c r="H12" s="10"/>
-      <c r="I12" s="10"/>
-      <c r="J12" s="10"/>
+      <c r="E12" s="13"/>
+      <c r="F12" s="13"/>
+      <c r="H12" s="13"/>
+      <c r="I12" s="13"/>
+      <c r="J12" s="13"/>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A13" s="12"/>
+      <c r="A13" s="15"/>
       <c r="B13" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D13" s="10" t="s">
+      <c r="D13" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="E13" s="10"/>
-      <c r="F13" s="10"/>
-      <c r="H13" s="10"/>
-      <c r="I13" s="10"/>
-      <c r="J13" s="10"/>
+      <c r="E13" s="13"/>
+      <c r="F13" s="13"/>
+      <c r="H13" s="13"/>
+      <c r="I13" s="13"/>
+      <c r="J13" s="13"/>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A14" s="12"/>
+      <c r="A14" s="15"/>
       <c r="B14" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D14" s="10" t="s">
+      <c r="D14" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="E14" s="10"/>
-      <c r="F14" s="10"/>
-      <c r="H14" s="10"/>
-      <c r="I14" s="10"/>
-      <c r="J14" s="10"/>
+      <c r="E14" s="13"/>
+      <c r="F14" s="13"/>
+      <c r="H14" s="13"/>
+      <c r="I14" s="13"/>
+      <c r="J14" s="13"/>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A15" s="12"/>
+      <c r="A15" s="15"/>
       <c r="B15" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D15" s="10" t="s">
+      <c r="D15" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E15" s="10"/>
-      <c r="F15" s="10"/>
-      <c r="H15" s="10"/>
-      <c r="I15" s="10"/>
-      <c r="J15" s="10"/>
+      <c r="E15" s="13"/>
+      <c r="F15" s="13"/>
+      <c r="H15" s="13"/>
+      <c r="I15" s="13"/>
+      <c r="J15" s="13"/>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A16" s="12"/>
+      <c r="A16" s="15"/>
       <c r="B16" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D16" s="10" t="s">
+      <c r="D16" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="E16" s="10"/>
-      <c r="F16" s="10"/>
-      <c r="H16" s="10"/>
-      <c r="I16" s="10"/>
-      <c r="J16" s="10"/>
+      <c r="E16" s="13"/>
+      <c r="F16" s="13"/>
+      <c r="H16" s="13"/>
+      <c r="I16" s="13"/>
+      <c r="J16" s="13"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17" s="12"/>
+      <c r="A17" s="15"/>
       <c r="B17" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D17" s="10"/>
-      <c r="E17" s="10"/>
-      <c r="F17" s="10"/>
-      <c r="H17" s="10"/>
-      <c r="I17" s="10"/>
-      <c r="J17" s="10"/>
+      <c r="D17" s="13"/>
+      <c r="E17" s="13"/>
+      <c r="F17" s="13"/>
+      <c r="H17" s="13"/>
+      <c r="I17" s="13"/>
+      <c r="J17" s="13"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18" s="12"/>
+      <c r="A18" s="15"/>
       <c r="B18" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D18" s="10" t="s">
+      <c r="D18" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="E18" s="10"/>
-      <c r="F18" s="10"/>
-      <c r="H18" s="10" t="s">
+      <c r="E18" s="13"/>
+      <c r="F18" s="13"/>
+      <c r="H18" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="I18" s="10"/>
-      <c r="J18" s="10"/>
+      <c r="I18" s="13"/>
+      <c r="J18" s="13"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19" s="12"/>
+      <c r="A19" s="15"/>
       <c r="B19" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D19" s="10" t="s">
+      <c r="D19" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="E19" s="10"/>
-      <c r="F19" s="10"/>
+      <c r="E19" s="13"/>
+      <c r="F19" s="13"/>
       <c r="H19" s="2" t="s">
         <v>31</v>
       </c>
@@ -1671,223 +1679,223 @@
         <v>14</v>
       </c>
       <c r="C23" s="3"/>
-      <c r="D23" s="11" t="s">
+      <c r="D23" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="E23" s="11"/>
-      <c r="F23" s="11"/>
-      <c r="H23" s="11" t="s">
+      <c r="E23" s="14"/>
+      <c r="F23" s="14"/>
+      <c r="H23" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="I23" s="11"/>
-      <c r="J23" s="11"/>
+      <c r="I23" s="14"/>
+      <c r="J23" s="14"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" s="12" t="s">
+      <c r="A24" s="15" t="s">
         <v>53</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D24" s="10" t="s">
+      <c r="D24" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="E24" s="10"/>
-      <c r="F24" s="10"/>
-      <c r="H24" s="10" t="s">
+      <c r="E24" s="13"/>
+      <c r="F24" s="13"/>
+      <c r="H24" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="I24" s="10"/>
-      <c r="J24" s="10"/>
+      <c r="I24" s="13"/>
+      <c r="J24" s="13"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" s="12"/>
+      <c r="A25" s="15"/>
       <c r="B25" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D25" s="10" t="s">
+      <c r="D25" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="E25" s="10"/>
-      <c r="F25" s="10"/>
-      <c r="H25" s="10" t="s">
+      <c r="E25" s="13"/>
+      <c r="F25" s="13"/>
+      <c r="H25" s="13" t="s">
         <v>36</v>
       </c>
-      <c r="I25" s="10"/>
-      <c r="J25" s="10"/>
+      <c r="I25" s="13"/>
+      <c r="J25" s="13"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" s="12"/>
+      <c r="A26" s="15"/>
       <c r="B26" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D26" s="10" t="s">
+      <c r="D26" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
-      <c r="H26" s="10" t="s">
+      <c r="E26" s="13"/>
+      <c r="F26" s="13"/>
+      <c r="H26" s="13" t="s">
         <v>57</v>
       </c>
-      <c r="I26" s="10"/>
-      <c r="J26" s="10"/>
+      <c r="I26" s="13"/>
+      <c r="J26" s="13"/>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27" s="12"/>
+      <c r="A27" s="15"/>
       <c r="B27" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D27" s="10" t="s">
+      <c r="D27" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="E27" s="10"/>
-      <c r="F27" s="10"/>
-      <c r="H27" s="10" t="s">
+      <c r="E27" s="13"/>
+      <c r="F27" s="13"/>
+      <c r="H27" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="I27" s="10"/>
-      <c r="J27" s="10"/>
+      <c r="I27" s="13"/>
+      <c r="J27" s="13"/>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28" s="12"/>
+      <c r="A28" s="15"/>
       <c r="B28" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D28" s="10" t="s">
+      <c r="D28" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="E28" s="10"/>
-      <c r="F28" s="10"/>
-      <c r="H28" s="10" t="s">
+      <c r="E28" s="13"/>
+      <c r="F28" s="13"/>
+      <c r="H28" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="I28" s="10"/>
-      <c r="J28" s="10"/>
+      <c r="I28" s="13"/>
+      <c r="J28" s="13"/>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A29" s="12"/>
+      <c r="A29" s="15"/>
       <c r="B29" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D29" s="10" t="s">
+      <c r="D29" s="13" t="s">
         <v>55</v>
       </c>
-      <c r="E29" s="10"/>
-      <c r="F29" s="10"/>
-      <c r="H29" s="10" t="s">
+      <c r="E29" s="13"/>
+      <c r="F29" s="13"/>
+      <c r="H29" s="13" t="s">
         <v>77</v>
       </c>
-      <c r="I29" s="10"/>
-      <c r="J29" s="10"/>
+      <c r="I29" s="13"/>
+      <c r="J29" s="13"/>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A30" s="12"/>
+      <c r="A30" s="15"/>
       <c r="B30" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D30" s="10" t="s">
+      <c r="D30" s="13" t="s">
         <v>56</v>
       </c>
-      <c r="E30" s="10"/>
-      <c r="F30" s="10"/>
-      <c r="H30" s="10"/>
-      <c r="I30" s="10"/>
-      <c r="J30" s="10"/>
+      <c r="E30" s="13"/>
+      <c r="F30" s="13"/>
+      <c r="H30" s="13"/>
+      <c r="I30" s="13"/>
+      <c r="J30" s="13"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A31" s="12"/>
+      <c r="A31" s="15"/>
       <c r="B31" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="D31" s="10" t="s">
+      <c r="D31" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="E31" s="10"/>
-      <c r="F31" s="10"/>
-      <c r="H31" s="10"/>
-      <c r="I31" s="10"/>
-      <c r="J31" s="10"/>
+      <c r="E31" s="13"/>
+      <c r="F31" s="13"/>
+      <c r="H31" s="13"/>
+      <c r="I31" s="13"/>
+      <c r="J31" s="13"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A32" s="12"/>
+      <c r="A32" s="15"/>
       <c r="B32" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D32" s="10" t="s">
+      <c r="D32" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="E32" s="10"/>
-      <c r="F32" s="10"/>
-      <c r="H32" s="10"/>
-      <c r="I32" s="10"/>
-      <c r="J32" s="10"/>
+      <c r="E32" s="13"/>
+      <c r="F32" s="13"/>
+      <c r="H32" s="13"/>
+      <c r="I32" s="13"/>
+      <c r="J32" s="13"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A33" s="12"/>
+      <c r="A33" s="15"/>
       <c r="B33" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D33" s="10" t="s">
+      <c r="D33" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E33" s="10"/>
-      <c r="F33" s="10"/>
-      <c r="H33" s="10"/>
-      <c r="I33" s="10"/>
-      <c r="J33" s="10"/>
+      <c r="E33" s="13"/>
+      <c r="F33" s="13"/>
+      <c r="H33" s="13"/>
+      <c r="I33" s="13"/>
+      <c r="J33" s="13"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A34" s="12"/>
+      <c r="A34" s="15"/>
       <c r="B34" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="D34" s="10" t="s">
+      <c r="D34" s="13" t="s">
         <v>21</v>
       </c>
-      <c r="E34" s="10"/>
-      <c r="F34" s="10"/>
-      <c r="H34" s="10"/>
-      <c r="I34" s="10"/>
-      <c r="J34" s="10"/>
+      <c r="E34" s="13"/>
+      <c r="F34" s="13"/>
+      <c r="H34" s="13"/>
+      <c r="I34" s="13"/>
+      <c r="J34" s="13"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A35" s="12"/>
+      <c r="A35" s="15"/>
       <c r="B35" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="D35" s="10"/>
-      <c r="E35" s="10"/>
-      <c r="F35" s="10"/>
-      <c r="H35" s="10"/>
-      <c r="I35" s="10"/>
-      <c r="J35" s="10"/>
+      <c r="D35" s="13"/>
+      <c r="E35" s="13"/>
+      <c r="F35" s="13"/>
+      <c r="H35" s="13"/>
+      <c r="I35" s="13"/>
+      <c r="J35" s="13"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A36" s="12"/>
+      <c r="A36" s="15"/>
       <c r="B36" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D36" s="10" t="s">
+      <c r="D36" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="E36" s="10"/>
-      <c r="F36" s="10"/>
-      <c r="H36" s="10" t="s">
+      <c r="E36" s="13"/>
+      <c r="F36" s="13"/>
+      <c r="H36" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="I36" s="10"/>
-      <c r="J36" s="10"/>
+      <c r="I36" s="13"/>
+      <c r="J36" s="13"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A37" s="12"/>
+      <c r="A37" s="15"/>
       <c r="B37" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D37" s="10" t="s">
+      <c r="D37" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="E37" s="10"/>
-      <c r="F37" s="10"/>
+      <c r="E37" s="13"/>
+      <c r="F37" s="13"/>
       <c r="H37" s="2" t="s">
         <v>31</v>
       </c>
@@ -1900,93 +1908,93 @@
         <v>15</v>
       </c>
       <c r="C40" s="3"/>
-      <c r="D40" s="11" t="s">
+      <c r="D40" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="E40" s="11"/>
-      <c r="F40" s="11"/>
-      <c r="H40" s="11" t="s">
+      <c r="E40" s="14"/>
+      <c r="F40" s="14"/>
+      <c r="H40" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="I40" s="11"/>
-      <c r="J40" s="11"/>
+      <c r="I40" s="14"/>
+      <c r="J40" s="14"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A41" s="12" t="s">
+      <c r="A41" s="15" t="s">
         <v>52</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D41" s="10" t="s">
+      <c r="D41" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="E41" s="10"/>
-      <c r="F41" s="10"/>
-      <c r="H41" s="10" t="s">
+      <c r="E41" s="13"/>
+      <c r="F41" s="13"/>
+      <c r="H41" s="13" t="s">
         <v>12</v>
       </c>
-      <c r="I41" s="10"/>
-      <c r="J41" s="10"/>
+      <c r="I41" s="13"/>
+      <c r="J41" s="13"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A42" s="12"/>
+      <c r="A42" s="15"/>
       <c r="B42" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D42" s="10" t="s">
+      <c r="D42" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="E42" s="10"/>
-      <c r="F42" s="10"/>
-      <c r="H42" s="10" t="s">
+      <c r="E42" s="13"/>
+      <c r="F42" s="13"/>
+      <c r="H42" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="I42" s="10"/>
-      <c r="J42" s="10"/>
+      <c r="I42" s="13"/>
+      <c r="J42" s="13"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A43" s="12"/>
+      <c r="A43" s="15"/>
       <c r="B43" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D43" s="10" t="s">
+      <c r="D43" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="E43" s="10"/>
-      <c r="F43" s="10"/>
-      <c r="H43" s="10" t="s">
+      <c r="E43" s="13"/>
+      <c r="F43" s="13"/>
+      <c r="H43" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="I43" s="10"/>
-      <c r="J43" s="10"/>
+      <c r="I43" s="13"/>
+      <c r="J43" s="13"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A44" s="12"/>
+      <c r="A44" s="15"/>
       <c r="B44" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D44" s="10" t="s">
+      <c r="D44" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="E44" s="10"/>
-      <c r="F44" s="10"/>
-      <c r="H44" s="10" t="s">
+      <c r="E44" s="13"/>
+      <c r="F44" s="13"/>
+      <c r="H44" s="13" t="s">
         <v>72</v>
       </c>
-      <c r="I44" s="10"/>
-      <c r="J44" s="10"/>
+      <c r="I44" s="13"/>
+      <c r="J44" s="13"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A45" s="12"/>
+      <c r="A45" s="15"/>
       <c r="B45" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D45" s="10" t="s">
+      <c r="D45" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="E45" s="10"/>
-      <c r="F45" s="10"/>
+      <c r="E45" s="13"/>
+      <c r="F45" s="13"/>
       <c r="H45" s="2" t="s">
         <v>73</v>
       </c>
@@ -1994,15 +2002,15 @@
       <c r="J45" s="2"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A46" s="12"/>
+      <c r="A46" s="15"/>
       <c r="B46" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D46" s="10" t="s">
+      <c r="D46" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="E46" s="10"/>
-      <c r="F46" s="10"/>
+      <c r="E46" s="13"/>
+      <c r="F46" s="13"/>
       <c r="H46" s="2" t="s">
         <v>74</v>
       </c>
@@ -2010,101 +2018,101 @@
       <c r="J46" s="2"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A47" s="12"/>
+      <c r="A47" s="15"/>
       <c r="B47" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D47" s="10" t="s">
+      <c r="D47" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="E47" s="10"/>
-      <c r="F47" s="10"/>
-      <c r="H47" s="10"/>
-      <c r="I47" s="10"/>
-      <c r="J47" s="10"/>
+      <c r="E47" s="13"/>
+      <c r="F47" s="13"/>
+      <c r="H47" s="13"/>
+      <c r="I47" s="13"/>
+      <c r="J47" s="13"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A48" s="12"/>
+      <c r="A48" s="15"/>
       <c r="B48" s="1" t="s">
         <v>65</v>
       </c>
       <c r="C48"/>
-      <c r="D48" s="10" t="s">
+      <c r="D48" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="E48" s="10"/>
-      <c r="F48" s="10"/>
-      <c r="H48" s="10"/>
-      <c r="I48" s="10"/>
-      <c r="J48" s="10"/>
+      <c r="E48" s="13"/>
+      <c r="F48" s="13"/>
+      <c r="H48" s="13"/>
+      <c r="I48" s="13"/>
+      <c r="J48" s="13"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A49" s="12"/>
+      <c r="A49" s="15"/>
       <c r="B49" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D49" s="10" t="s">
+      <c r="D49" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="E49" s="10"/>
-      <c r="F49" s="10"/>
-      <c r="H49" s="10"/>
-      <c r="I49" s="10"/>
-      <c r="J49" s="10"/>
+      <c r="E49" s="13"/>
+      <c r="F49" s="13"/>
+      <c r="H49" s="13"/>
+      <c r="I49" s="13"/>
+      <c r="J49" s="13"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A50" s="12"/>
+      <c r="A50" s="15"/>
       <c r="B50" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D50" s="10" t="s">
+      <c r="D50" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E50" s="10"/>
-      <c r="F50" s="10"/>
-      <c r="H50" s="10"/>
-      <c r="I50" s="10"/>
-      <c r="J50" s="10"/>
+      <c r="E50" s="13"/>
+      <c r="F50" s="13"/>
+      <c r="H50" s="13"/>
+      <c r="I50" s="13"/>
+      <c r="J50" s="13"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A51" s="12"/>
+      <c r="A51" s="15"/>
       <c r="B51" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C51"/>
-      <c r="D51" s="10"/>
-      <c r="E51" s="10"/>
-      <c r="F51" s="10"/>
-      <c r="H51" s="10"/>
-      <c r="I51" s="10"/>
-      <c r="J51" s="10"/>
+      <c r="D51" s="13"/>
+      <c r="E51" s="13"/>
+      <c r="F51" s="13"/>
+      <c r="H51" s="13"/>
+      <c r="I51" s="13"/>
+      <c r="J51" s="13"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A52" s="12"/>
+      <c r="A52" s="15"/>
       <c r="B52" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D52" s="10" t="s">
+      <c r="D52" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="E52" s="10"/>
-      <c r="F52" s="10"/>
-      <c r="H52" s="10" t="s">
+      <c r="E52" s="13"/>
+      <c r="F52" s="13"/>
+      <c r="H52" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="I52" s="10"/>
-      <c r="J52" s="10"/>
+      <c r="I52" s="13"/>
+      <c r="J52" s="13"/>
     </row>
     <row r="53" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A53" s="12"/>
+      <c r="A53" s="15"/>
       <c r="B53" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D53" s="10" t="s">
+      <c r="D53" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="E53" s="10"/>
-      <c r="F53" s="10"/>
+      <c r="E53" s="13"/>
+      <c r="F53" s="13"/>
       <c r="H53" s="2" t="s">
         <v>31</v>
       </c>
@@ -2138,227 +2146,227 @@
         <v>15</v>
       </c>
       <c r="C57" s="3"/>
-      <c r="D57" s="11" t="s">
+      <c r="D57" s="14" t="s">
         <v>70</v>
       </c>
-      <c r="E57" s="11"/>
-      <c r="F57" s="11"/>
-      <c r="H57" s="11" t="s">
+      <c r="E57" s="14"/>
+      <c r="F57" s="14"/>
+      <c r="H57" s="14" t="s">
         <v>71</v>
       </c>
-      <c r="I57" s="11"/>
-      <c r="J57" s="11"/>
+      <c r="I57" s="14"/>
+      <c r="J57" s="14"/>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A58" s="12" t="s">
+      <c r="A58" s="15" t="s">
         <v>54</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D58" s="10" t="s">
+      <c r="D58" s="13" t="s">
         <v>35</v>
       </c>
-      <c r="E58" s="10"/>
-      <c r="F58" s="10"/>
-      <c r="H58" s="10" t="s">
+      <c r="E58" s="13"/>
+      <c r="F58" s="13"/>
+      <c r="H58" s="13" t="s">
         <v>80</v>
       </c>
-      <c r="I58" s="10"/>
-      <c r="J58" s="10"/>
+      <c r="I58" s="13"/>
+      <c r="J58" s="13"/>
     </row>
     <row r="59" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A59" s="12"/>
+      <c r="A59" s="15"/>
       <c r="B59" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D59" s="10" t="s">
+      <c r="D59" s="13" t="s">
         <v>78</v>
       </c>
-      <c r="E59" s="10"/>
-      <c r="F59" s="10"/>
-      <c r="H59" s="10" t="s">
+      <c r="E59" s="13"/>
+      <c r="F59" s="13"/>
+      <c r="H59" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="I59" s="10"/>
-      <c r="J59" s="10"/>
+      <c r="I59" s="13"/>
+      <c r="J59" s="13"/>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A60" s="12"/>
+      <c r="A60" s="15"/>
       <c r="B60" s="1" t="s">
         <v>60</v>
       </c>
-      <c r="D60" s="10" t="s">
+      <c r="D60" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="E60" s="10"/>
-      <c r="F60" s="10"/>
-      <c r="H60" s="10" t="s">
+      <c r="E60" s="13"/>
+      <c r="F60" s="13"/>
+      <c r="H60" s="13" t="s">
         <v>17</v>
       </c>
-      <c r="I60" s="10"/>
-      <c r="J60" s="10"/>
+      <c r="I60" s="13"/>
+      <c r="J60" s="13"/>
     </row>
     <row r="61" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A61" s="12"/>
+      <c r="A61" s="15"/>
       <c r="B61" s="1" t="s">
         <v>61</v>
       </c>
-      <c r="D61" s="10" t="s">
+      <c r="D61" s="13" t="s">
         <v>79</v>
       </c>
-      <c r="E61" s="10"/>
-      <c r="F61" s="10"/>
-      <c r="H61" s="10" t="s">
+      <c r="E61" s="13"/>
+      <c r="F61" s="13"/>
+      <c r="H61" s="13" t="s">
         <v>81</v>
       </c>
-      <c r="I61" s="10"/>
-      <c r="J61" s="10"/>
+      <c r="I61" s="13"/>
+      <c r="J61" s="13"/>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A62" s="12"/>
+      <c r="A62" s="15"/>
       <c r="B62" s="1" t="s">
         <v>62</v>
       </c>
-      <c r="D62" s="10" t="s">
+      <c r="D62" s="13" t="s">
         <v>33</v>
       </c>
-      <c r="E62" s="10"/>
-      <c r="F62" s="10"/>
-      <c r="H62" s="10" t="s">
+      <c r="E62" s="13"/>
+      <c r="F62" s="13"/>
+      <c r="H62" s="13" t="s">
         <v>75</v>
       </c>
-      <c r="I62" s="10"/>
-      <c r="J62" s="10"/>
+      <c r="I62" s="13"/>
+      <c r="J62" s="13"/>
     </row>
     <row r="63" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A63" s="12"/>
+      <c r="A63" s="15"/>
       <c r="B63" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D63" s="10" t="s">
+      <c r="D63" s="13" t="s">
         <v>13</v>
       </c>
-      <c r="E63" s="10"/>
-      <c r="F63" s="10"/>
-      <c r="H63" s="10" t="s">
+      <c r="E63" s="13"/>
+      <c r="F63" s="13"/>
+      <c r="H63" s="13" t="s">
         <v>82</v>
       </c>
-      <c r="I63" s="10"/>
-      <c r="J63" s="10"/>
+      <c r="I63" s="13"/>
+      <c r="J63" s="13"/>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A64" s="12"/>
+      <c r="A64" s="15"/>
       <c r="B64" s="1" t="s">
         <v>64</v>
       </c>
-      <c r="D64" s="10" t="s">
+      <c r="D64" s="13" t="s">
         <v>18</v>
       </c>
-      <c r="E64" s="10"/>
-      <c r="F64" s="10"/>
-      <c r="H64" s="10" t="s">
+      <c r="E64" s="13"/>
+      <c r="F64" s="13"/>
+      <c r="H64" s="13" t="s">
         <v>83</v>
       </c>
-      <c r="I64" s="10"/>
-      <c r="J64" s="10"/>
+      <c r="I64" s="13"/>
+      <c r="J64" s="13"/>
     </row>
     <row r="65" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A65" s="12"/>
+      <c r="A65" s="15"/>
       <c r="B65" s="1" t="s">
         <v>65</v>
       </c>
       <c r="C65"/>
-      <c r="D65" s="10" t="s">
+      <c r="D65" s="13" t="s">
         <v>22</v>
       </c>
-      <c r="E65" s="10"/>
-      <c r="F65" s="10"/>
-      <c r="H65" s="10"/>
-      <c r="I65" s="10"/>
-      <c r="J65" s="10"/>
+      <c r="E65" s="13"/>
+      <c r="F65" s="13"/>
+      <c r="H65" s="13"/>
+      <c r="I65" s="13"/>
+      <c r="J65" s="13"/>
     </row>
     <row r="66" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A66" s="12"/>
+      <c r="A66" s="15"/>
       <c r="B66" s="1" t="s">
         <v>66</v>
       </c>
-      <c r="D66" s="10" t="s">
+      <c r="D66" s="13" t="s">
         <v>34</v>
       </c>
-      <c r="E66" s="10"/>
-      <c r="F66" s="10"/>
-      <c r="H66" s="10"/>
-      <c r="I66" s="10"/>
-      <c r="J66" s="10"/>
+      <c r="E66" s="13"/>
+      <c r="F66" s="13"/>
+      <c r="H66" s="13"/>
+      <c r="I66" s="13"/>
+      <c r="J66" s="13"/>
     </row>
     <row r="67" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A67" s="12"/>
+      <c r="A67" s="15"/>
       <c r="B67" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="D67" s="10" t="s">
+      <c r="D67" s="13" t="s">
         <v>19</v>
       </c>
-      <c r="E67" s="10"/>
-      <c r="F67" s="10"/>
-      <c r="H67" s="10"/>
-      <c r="I67" s="10"/>
-      <c r="J67" s="10"/>
+      <c r="E67" s="13"/>
+      <c r="F67" s="13"/>
+      <c r="H67" s="13"/>
+      <c r="I67" s="13"/>
+      <c r="J67" s="13"/>
     </row>
     <row r="68" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A68" s="12"/>
+      <c r="A68" s="15"/>
       <c r="B68" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="D68" s="10" t="s">
+      <c r="D68" s="13" t="s">
         <v>20</v>
       </c>
-      <c r="E68" s="10"/>
-      <c r="F68" s="10"/>
-      <c r="H68" s="10"/>
-      <c r="I68" s="10"/>
-      <c r="J68" s="10"/>
+      <c r="E68" s="13"/>
+      <c r="F68" s="13"/>
+      <c r="H68" s="13"/>
+      <c r="I68" s="13"/>
+      <c r="J68" s="13"/>
     </row>
     <row r="69" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A69" s="12"/>
+      <c r="A69" s="15"/>
       <c r="B69" s="1" t="s">
         <v>24</v>
       </c>
       <c r="C69"/>
-      <c r="D69" s="10"/>
-      <c r="E69" s="10"/>
-      <c r="F69" s="10"/>
-      <c r="H69" s="10"/>
-      <c r="I69" s="10"/>
-      <c r="J69" s="10"/>
+      <c r="D69" s="13"/>
+      <c r="E69" s="13"/>
+      <c r="F69" s="13"/>
+      <c r="H69" s="13"/>
+      <c r="I69" s="13"/>
+      <c r="J69" s="13"/>
     </row>
     <row r="70" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A70" s="12"/>
+      <c r="A70" s="15"/>
       <c r="B70" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="D70" s="10" t="s">
+      <c r="D70" s="13" t="s">
         <v>26</v>
       </c>
-      <c r="E70" s="10"/>
-      <c r="F70" s="10"/>
-      <c r="H70" s="10" t="s">
+      <c r="E70" s="13"/>
+      <c r="F70" s="13"/>
+      <c r="H70" s="13" t="s">
         <v>40</v>
       </c>
-      <c r="I70" s="10"/>
-      <c r="J70" s="10"/>
+      <c r="I70" s="13"/>
+      <c r="J70" s="13"/>
     </row>
     <row r="71" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A71" s="12"/>
+      <c r="A71" s="15"/>
       <c r="B71" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="D71" s="10" t="s">
+      <c r="D71" s="13" t="s">
         <v>31</v>
       </c>
-      <c r="E71" s="10"/>
-      <c r="F71" s="10"/>
+      <c r="E71" s="13"/>
+      <c r="F71" s="13"/>
       <c r="H71" s="2" t="s">
         <v>31</v>
       </c>
@@ -2367,18 +2375,84 @@
     </row>
   </sheetData>
   <mergeCells count="114">
-    <mergeCell ref="H70:J70"/>
-    <mergeCell ref="H61:J61"/>
-    <mergeCell ref="D59:F59"/>
-    <mergeCell ref="H63:J63"/>
-    <mergeCell ref="H69:J69"/>
-    <mergeCell ref="H62:J62"/>
-    <mergeCell ref="H64:J64"/>
-    <mergeCell ref="H65:J65"/>
-    <mergeCell ref="H66:J66"/>
-    <mergeCell ref="H67:J67"/>
-    <mergeCell ref="D68:F68"/>
-    <mergeCell ref="D69:F69"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="D70:F70"/>
+    <mergeCell ref="D57:F57"/>
+    <mergeCell ref="A24:A37"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="A58:A71"/>
+    <mergeCell ref="D58:F58"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="D60:F60"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="D67:F67"/>
+    <mergeCell ref="D61:F61"/>
+    <mergeCell ref="D62:F62"/>
+    <mergeCell ref="D63:F63"/>
+    <mergeCell ref="D64:F64"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="D65:F65"/>
+    <mergeCell ref="D66:F66"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="D71:F71"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="A7:A19"/>
+    <mergeCell ref="A41:A53"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="D41:F41"/>
+    <mergeCell ref="D42:F42"/>
+    <mergeCell ref="D43:F43"/>
+    <mergeCell ref="D44:F44"/>
+    <mergeCell ref="D45:F45"/>
+    <mergeCell ref="D46:F46"/>
+    <mergeCell ref="D47:F47"/>
+    <mergeCell ref="D48:F48"/>
+    <mergeCell ref="D49:F49"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="D50:F50"/>
+    <mergeCell ref="D51:F51"/>
+    <mergeCell ref="D52:F52"/>
+    <mergeCell ref="D53:F53"/>
+    <mergeCell ref="D40:F40"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="H7:J7"/>
+    <mergeCell ref="H8:J8"/>
+    <mergeCell ref="H9:J9"/>
+    <mergeCell ref="H10:J10"/>
+    <mergeCell ref="H11:J11"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="H13:J13"/>
+    <mergeCell ref="H14:J14"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="H31:J31"/>
+    <mergeCell ref="H32:J32"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="H15:J15"/>
+    <mergeCell ref="H16:J16"/>
+    <mergeCell ref="H18:J18"/>
+    <mergeCell ref="H17:J17"/>
+    <mergeCell ref="H23:J23"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="H25:J25"/>
+    <mergeCell ref="H27:J27"/>
     <mergeCell ref="H40:J40"/>
     <mergeCell ref="H41:J41"/>
     <mergeCell ref="H42:J42"/>
@@ -2403,84 +2477,18 @@
     <mergeCell ref="H28:J28"/>
     <mergeCell ref="H29:J29"/>
     <mergeCell ref="H30:J30"/>
-    <mergeCell ref="H31:J31"/>
-    <mergeCell ref="H32:J32"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="H15:J15"/>
-    <mergeCell ref="H16:J16"/>
-    <mergeCell ref="H18:J18"/>
-    <mergeCell ref="H17:J17"/>
-    <mergeCell ref="H23:J23"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="H25:J25"/>
-    <mergeCell ref="H27:J27"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="H7:J7"/>
-    <mergeCell ref="H8:J8"/>
-    <mergeCell ref="H9:J9"/>
-    <mergeCell ref="H10:J10"/>
-    <mergeCell ref="H11:J11"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="H13:J13"/>
-    <mergeCell ref="H14:J14"/>
-    <mergeCell ref="D71:F71"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="A7:A19"/>
-    <mergeCell ref="A41:A53"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="D41:F41"/>
-    <mergeCell ref="D42:F42"/>
-    <mergeCell ref="D43:F43"/>
-    <mergeCell ref="D44:F44"/>
-    <mergeCell ref="D45:F45"/>
-    <mergeCell ref="D46:F46"/>
-    <mergeCell ref="D47:F47"/>
-    <mergeCell ref="D48:F48"/>
-    <mergeCell ref="D49:F49"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="D50:F50"/>
-    <mergeCell ref="D51:F51"/>
-    <mergeCell ref="D52:F52"/>
-    <mergeCell ref="D53:F53"/>
-    <mergeCell ref="D40:F40"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="D70:F70"/>
-    <mergeCell ref="D57:F57"/>
-    <mergeCell ref="A24:A37"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="A58:A71"/>
-    <mergeCell ref="D58:F58"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="D60:F60"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="D67:F67"/>
-    <mergeCell ref="D61:F61"/>
-    <mergeCell ref="D62:F62"/>
-    <mergeCell ref="D63:F63"/>
-    <mergeCell ref="D64:F64"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="D65:F65"/>
-    <mergeCell ref="D66:F66"/>
-    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="H70:J70"/>
+    <mergeCell ref="H61:J61"/>
+    <mergeCell ref="D59:F59"/>
+    <mergeCell ref="H63:J63"/>
+    <mergeCell ref="H69:J69"/>
+    <mergeCell ref="H62:J62"/>
+    <mergeCell ref="H64:J64"/>
+    <mergeCell ref="H65:J65"/>
+    <mergeCell ref="H66:J66"/>
+    <mergeCell ref="H67:J67"/>
+    <mergeCell ref="D68:F68"/>
+    <mergeCell ref="D69:F69"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2492,8 +2500,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:M82"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L25" sqref="L25"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="K82" sqref="K82"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -2512,7 +2520,7 @@
   </cols>
   <sheetData>
     <row r="4" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B4" s="14" t="s">
+      <c r="B4" s="16" t="s">
         <v>84</v>
       </c>
       <c r="C4" s="5"/>
@@ -2528,22 +2536,22 @@
       <c r="G4" s="8" t="s">
         <v>173</v>
       </c>
-      <c r="H4" s="15" t="s">
+      <c r="H4" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="I4" s="15" t="s">
+      <c r="I4" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="J4" s="15" t="s">
+      <c r="J4" s="11" t="s">
         <v>129</v>
       </c>
-      <c r="K4" s="15" t="s">
+      <c r="K4" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="L4" s="15" t="s">
+      <c r="L4" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="M4" s="15" t="s">
+      <c r="M4" s="11" t="s">
         <v>132</v>
       </c>
     </row>
@@ -2551,7 +2559,7 @@
       <c r="A5" s="1">
         <v>1</v>
       </c>
-      <c r="B5" s="14"/>
+      <c r="B5" s="16"/>
       <c r="C5" s="7" t="s">
         <v>86</v>
       </c>
@@ -2567,28 +2575,28 @@
       <c r="G5" s="8">
         <v>1</v>
       </c>
-      <c r="H5" s="15">
+      <c r="H5" s="11">
         <v>0</v>
       </c>
-      <c r="I5" s="15" t="s">
+      <c r="I5" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="J5" s="15" t="s">
+      <c r="J5" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="K5" s="15" t="s">
+      <c r="K5" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="L5" s="15" t="s">
+      <c r="L5" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="M5" s="15" t="s">
+      <c r="M5" s="11" t="s">
         <v>133</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B6" s="14"/>
-      <c r="C6" s="13" t="s">
+      <c r="B6" s="16"/>
+      <c r="C6" s="10" t="s">
         <v>87</v>
       </c>
       <c r="D6" s="1" t="s">
@@ -2597,10 +2605,10 @@
       <c r="E6" s="1">
         <v>2</v>
       </c>
-      <c r="F6" s="13">
+      <c r="F6" s="10">
         <v>10</v>
       </c>
-      <c r="G6" s="16" t="s">
+      <c r="G6" s="12" t="s">
         <v>96</v>
       </c>
     </row>
@@ -2608,7 +2616,7 @@
       <c r="C7" s="5"/>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B8" s="14" t="s">
+      <c r="B8" s="16" t="s">
         <v>141</v>
       </c>
       <c r="C8" s="5"/>
@@ -2629,7 +2637,7 @@
       <c r="A9" s="1">
         <v>2</v>
       </c>
-      <c r="B9" s="14"/>
+      <c r="B9" s="16"/>
       <c r="C9" s="7" t="s">
         <v>86</v>
       </c>
@@ -2647,8 +2655,8 @@
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B10" s="14"/>
-      <c r="C10" s="13" t="s">
+      <c r="B10" s="16"/>
+      <c r="C10" s="10" t="s">
         <v>87</v>
       </c>
       <c r="D10" s="1" t="s">
@@ -2657,10 +2665,10 @@
       <c r="E10" s="1">
         <v>2</v>
       </c>
-      <c r="F10" s="13">
+      <c r="F10" s="10">
         <v>10</v>
       </c>
-      <c r="G10" s="16" t="s">
+      <c r="G10" s="12" t="s">
         <v>96</v>
       </c>
     </row>
@@ -2670,7 +2678,7 @@
       <c r="F11" s="1"/>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B12" s="14" t="s">
+      <c r="B12" s="16" t="s">
         <v>142</v>
       </c>
       <c r="C12" s="5"/>
@@ -2686,27 +2694,27 @@
       <c r="G12" s="8" t="s">
         <v>175</v>
       </c>
-      <c r="H12" s="15" t="s">
+      <c r="H12" s="11" t="s">
         <v>155</v>
       </c>
-      <c r="I12" s="15" t="s">
+      <c r="I12" s="11" t="s">
         <v>128</v>
       </c>
-      <c r="J12" s="15" t="s">
+      <c r="J12" s="11" t="s">
         <v>157</v>
       </c>
-      <c r="K12" s="15" t="s">
+      <c r="K12" s="11" t="s">
         <v>130</v>
       </c>
-      <c r="L12" s="15" t="s">
+      <c r="L12" s="11" t="s">
         <v>131</v>
       </c>
-      <c r="M12" s="15" t="s">
+      <c r="M12" s="11" t="s">
         <v>132</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B13" s="14"/>
+      <c r="B13" s="16"/>
       <c r="C13" s="7" t="s">
         <v>86</v>
       </c>
@@ -2722,28 +2730,28 @@
       <c r="G13" s="8">
         <v>2</v>
       </c>
-      <c r="H13" s="15">
+      <c r="H13" s="11">
         <v>0</v>
       </c>
-      <c r="I13" s="15" t="s">
+      <c r="I13" s="11" t="s">
         <v>158</v>
       </c>
-      <c r="J13" s="15" t="s">
+      <c r="J13" s="11" t="s">
         <v>159</v>
       </c>
-      <c r="K13" s="15" t="s">
+      <c r="K13" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="L13" s="15" t="s">
+      <c r="L13" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="M13" s="15" t="s">
+      <c r="M13" s="11" t="s">
         <v>160</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B14" s="14"/>
-      <c r="C14" s="13" t="s">
+      <c r="B14" s="16"/>
+      <c r="C14" s="10" t="s">
         <v>87</v>
       </c>
       <c r="D14" s="1" t="s">
@@ -2752,10 +2760,10 @@
       <c r="E14" s="1">
         <v>2</v>
       </c>
-      <c r="F14" s="13">
+      <c r="F14" s="10">
         <v>10</v>
       </c>
-      <c r="G14" s="16" t="s">
+      <c r="G14" s="12" t="s">
         <v>185</v>
       </c>
     </row>
@@ -2763,7 +2771,7 @@
       <c r="C15" s="5"/>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.2">
-      <c r="B16" s="14" t="s">
+      <c r="B16" s="16" t="s">
         <v>88</v>
       </c>
       <c r="C16" s="5"/>
@@ -2781,7 +2789,7 @@
       </c>
     </row>
     <row r="17" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B17" s="14"/>
+      <c r="B17" s="16"/>
       <c r="C17" s="7" t="s">
         <v>86</v>
       </c>
@@ -2799,8 +2807,8 @@
       </c>
     </row>
     <row r="18" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B18" s="14"/>
-      <c r="C18" s="13" t="s">
+      <c r="B18" s="16"/>
+      <c r="C18" s="10" t="s">
         <v>87</v>
       </c>
       <c r="D18" s="1" t="s">
@@ -2809,10 +2817,10 @@
       <c r="E18" s="1">
         <v>2</v>
       </c>
-      <c r="F18" s="13">
+      <c r="F18" s="10">
         <v>11</v>
       </c>
-      <c r="G18" s="16" t="s">
+      <c r="G18" s="12" t="s">
         <v>185</v>
       </c>
     </row>
@@ -2820,7 +2828,7 @@
       <c r="C19" s="5"/>
     </row>
     <row r="20" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B20" s="14" t="s">
+      <c r="B20" s="16" t="s">
         <v>89</v>
       </c>
       <c r="C20" s="5"/>
@@ -2836,21 +2844,21 @@
       <c r="G20" s="8" t="s">
         <v>89</v>
       </c>
-      <c r="H20" s="15" t="s">
+      <c r="H20" s="11" t="s">
         <v>156</v>
       </c>
-      <c r="I20" s="15" t="s">
+      <c r="I20" s="11" t="s">
         <v>92</v>
       </c>
-      <c r="J20" s="15" t="s">
+      <c r="J20" s="11" t="s">
         <v>93</v>
       </c>
-      <c r="K20" s="15" t="s">
+      <c r="K20" s="11" t="s">
         <v>94</v>
       </c>
     </row>
     <row r="21" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B21" s="14"/>
+      <c r="B21" s="16"/>
       <c r="C21" s="7" t="s">
         <v>86</v>
       </c>
@@ -2866,22 +2874,22 @@
       <c r="G21" s="8">
         <v>1</v>
       </c>
-      <c r="H21" s="15" t="s">
+      <c r="H21" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="I21" s="15" t="s">
+      <c r="I21" s="11" t="s">
         <v>127</v>
       </c>
-      <c r="J21" s="15" t="s">
+      <c r="J21" s="11" t="s">
         <v>102</v>
       </c>
-      <c r="K21" s="15" t="s">
+      <c r="K21" s="11" t="s">
         <v>102</v>
       </c>
     </row>
     <row r="22" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B22" s="14"/>
-      <c r="C22" s="13" t="s">
+      <c r="B22" s="16"/>
+      <c r="C22" s="10" t="s">
         <v>87</v>
       </c>
       <c r="D22" s="1" t="s">
@@ -2890,13 +2898,13 @@
       <c r="E22" s="1">
         <v>3</v>
       </c>
-      <c r="F22" s="13">
+      <c r="F22" s="10">
         <v>11</v>
       </c>
-      <c r="G22" s="16" t="s">
+      <c r="G22" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="H22" s="16" t="s">
+      <c r="H22" s="12" t="s">
         <v>96</v>
       </c>
     </row>
@@ -2904,7 +2912,7 @@
       <c r="C23" s="5"/>
     </row>
     <row r="24" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B24" s="14" t="s">
+      <c r="B24" s="16" t="s">
         <v>90</v>
       </c>
       <c r="C24" s="5"/>
@@ -2920,18 +2928,18 @@
       <c r="G24" s="8" t="s">
         <v>91</v>
       </c>
-      <c r="H24" s="15" t="s">
+      <c r="H24" s="11" t="s">
         <v>161</v>
       </c>
-      <c r="I24" s="15" t="s">
+      <c r="I24" s="11" t="s">
         <v>162</v>
       </c>
-      <c r="J24" s="15" t="s">
+      <c r="J24" s="11" t="s">
         <v>163</v>
       </c>
     </row>
     <row r="25" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B25" s="14"/>
+      <c r="B25" s="16"/>
       <c r="C25" s="7" t="s">
         <v>86</v>
       </c>
@@ -2947,19 +2955,19 @@
       <c r="G25" s="8">
         <v>2</v>
       </c>
-      <c r="H25" s="15" t="s">
+      <c r="H25" s="11" t="s">
         <v>126</v>
       </c>
-      <c r="I25" s="15" t="s">
+      <c r="I25" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="J25" s="15" t="s">
+      <c r="J25" s="11" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="26" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B26" s="14"/>
-      <c r="C26" s="13" t="s">
+      <c r="B26" s="16"/>
+      <c r="C26" s="10" t="s">
         <v>87</v>
       </c>
       <c r="D26" s="1" t="s">
@@ -2968,13 +2976,13 @@
       <c r="E26" s="1">
         <v>3</v>
       </c>
-      <c r="F26" s="13">
+      <c r="F26" s="10">
         <v>11</v>
       </c>
-      <c r="G26" s="16" t="s">
+      <c r="G26" s="12" t="s">
         <v>185</v>
       </c>
-      <c r="H26" s="16" t="s">
+      <c r="H26" s="12" t="s">
         <v>185</v>
       </c>
     </row>
@@ -2982,7 +2990,7 @@
       <c r="C27" s="5"/>
     </row>
     <row r="28" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B28" s="14" t="s">
+      <c r="B28" s="16" t="s">
         <v>97</v>
       </c>
       <c r="C28" s="5"/>
@@ -2995,21 +3003,21 @@
       <c r="F28" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="G28" s="15" t="s">
+      <c r="G28" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="H28" s="15" t="s">
+      <c r="H28" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="I28" s="15" t="s">
+      <c r="I28" s="11" t="s">
         <v>166</v>
       </c>
-      <c r="J28" s="15" t="s">
+      <c r="J28" s="11" t="s">
         <v>121</v>
       </c>
     </row>
     <row r="29" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B29" s="14"/>
+      <c r="B29" s="16"/>
       <c r="C29" s="7" t="s">
         <v>86</v>
       </c>
@@ -3022,22 +3030,22 @@
       <c r="F29" s="7">
         <v>12</v>
       </c>
-      <c r="G29" s="15" t="s">
+      <c r="G29" s="11" t="s">
         <v>158</v>
       </c>
-      <c r="H29" s="15" t="s">
+      <c r="H29" s="11" t="s">
         <v>158</v>
       </c>
-      <c r="I29" s="15" t="s">
+      <c r="I29" s="11" t="s">
         <v>158</v>
       </c>
-      <c r="J29" s="15" t="s">
+      <c r="J29" s="11" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="30" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B30" s="14"/>
-      <c r="C30" s="13" t="s">
+      <c r="B30" s="16"/>
+      <c r="C30" s="10" t="s">
         <v>87</v>
       </c>
       <c r="D30" s="1" t="s">
@@ -3046,13 +3054,13 @@
       <c r="E30" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="F30" s="13">
+      <c r="F30" s="10">
         <v>12</v>
       </c>
-      <c r="G30" s="16" t="s">
+      <c r="G30" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="H30" s="16" t="s">
+      <c r="H30" s="12" t="s">
         <v>186</v>
       </c>
     </row>
@@ -3060,7 +3068,7 @@
       <c r="C31" s="5"/>
     </row>
     <row r="32" spans="2:11" x14ac:dyDescent="0.2">
-      <c r="B32" s="14" t="s">
+      <c r="B32" s="16" t="s">
         <v>104</v>
       </c>
       <c r="C32" s="5"/>
@@ -3073,21 +3081,21 @@
       <c r="F32" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="G32" s="15" t="s">
+      <c r="G32" s="11" t="s">
         <v>98</v>
       </c>
-      <c r="H32" s="15" t="s">
+      <c r="H32" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="I32" s="15" t="s">
+      <c r="I32" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="J32" s="15" t="s">
+      <c r="J32" s="11" t="s">
         <v>105</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B33" s="14"/>
+      <c r="B33" s="16"/>
       <c r="C33" s="7" t="s">
         <v>86</v>
       </c>
@@ -3100,22 +3108,22 @@
       <c r="F33" s="7">
         <v>13</v>
       </c>
-      <c r="G33" s="15" t="s">
+      <c r="G33" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="H33" s="15" t="s">
+      <c r="H33" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="I33" s="15" t="s">
+      <c r="I33" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="J33" s="15" t="s">
+      <c r="J33" s="11" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B34" s="14"/>
-      <c r="C34" s="13" t="s">
+      <c r="B34" s="16"/>
+      <c r="C34" s="10" t="s">
         <v>87</v>
       </c>
       <c r="D34" s="1" t="s">
@@ -3124,10 +3132,10 @@
       <c r="E34" s="1">
         <v>2</v>
       </c>
-      <c r="F34" s="13">
+      <c r="F34" s="10">
         <v>13</v>
       </c>
-      <c r="G34" s="16" t="s">
+      <c r="G34" s="12" t="s">
         <v>185</v>
       </c>
     </row>
@@ -3135,7 +3143,7 @@
       <c r="C35" s="5"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B36" s="14" t="s">
+      <c r="B36" s="16" t="s">
         <v>106</v>
       </c>
       <c r="C36" s="5"/>
@@ -3148,18 +3156,18 @@
       <c r="F36" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="G36" s="15" t="s">
+      <c r="G36" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="H36" s="15" t="s">
+      <c r="H36" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="I36" s="15" t="s">
+      <c r="I36" s="11" t="s">
         <v>167</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B37" s="14"/>
+      <c r="B37" s="16"/>
       <c r="C37" s="7" t="s">
         <v>86</v>
       </c>
@@ -3172,19 +3180,19 @@
       <c r="F37" s="7">
         <v>14</v>
       </c>
-      <c r="G37" s="15" t="s">
+      <c r="G37" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="H37" s="15" t="s">
+      <c r="H37" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="I37" s="15" t="s">
+      <c r="I37" s="11" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B38" s="14"/>
-      <c r="C38" s="13" t="s">
+      <c r="B38" s="16"/>
+      <c r="C38" s="10" t="s">
         <v>87</v>
       </c>
       <c r="D38" s="1" t="s">
@@ -3193,13 +3201,13 @@
       <c r="E38" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="F38" s="13">
+      <c r="F38" s="10">
         <v>14</v>
       </c>
-      <c r="G38" s="16" t="s">
+      <c r="G38" s="12" t="s">
         <v>185</v>
       </c>
-      <c r="H38" s="16" t="s">
+      <c r="H38" s="12" t="s">
         <v>103</v>
       </c>
     </row>
@@ -3207,7 +3215,7 @@
       <c r="C39" s="5"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B40" s="14" t="s">
+      <c r="B40" s="16" t="s">
         <v>107</v>
       </c>
       <c r="C40" s="5"/>
@@ -3220,13 +3228,13 @@
       <c r="F40" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="G40" s="15" t="s">
+      <c r="G40" s="11" t="s">
         <v>99</v>
       </c>
-      <c r="H40" s="15" t="s">
+      <c r="H40" s="11" t="s">
         <v>100</v>
       </c>
-      <c r="I40" s="15" t="s">
+      <c r="I40" s="11" t="s">
         <v>165</v>
       </c>
     </row>
@@ -3234,7 +3242,7 @@
       <c r="A41" s="1">
         <v>1</v>
       </c>
-      <c r="B41" s="14"/>
+      <c r="B41" s="16"/>
       <c r="C41" s="7" t="s">
         <v>86</v>
       </c>
@@ -3247,19 +3255,19 @@
       <c r="F41" s="7">
         <v>15</v>
       </c>
-      <c r="G41" s="15" t="s">
+      <c r="G41" s="11" t="s">
         <v>164</v>
       </c>
-      <c r="H41" s="15" t="s">
+      <c r="H41" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="I41" s="15" t="s">
+      <c r="I41" s="11" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B42" s="14"/>
-      <c r="C42" s="13" t="s">
+      <c r="B42" s="16"/>
+      <c r="C42" s="10" t="s">
         <v>87</v>
       </c>
       <c r="D42" s="1" t="s">
@@ -3268,10 +3276,10 @@
       <c r="E42" s="1">
         <v>2</v>
       </c>
-      <c r="F42" s="13">
+      <c r="F42" s="10">
         <v>15</v>
       </c>
-      <c r="G42" s="16" t="s">
+      <c r="G42" s="12" t="s">
         <v>96</v>
       </c>
     </row>
@@ -3279,7 +3287,7 @@
       <c r="C43" s="5"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B44" s="14" t="s">
+      <c r="B44" s="16" t="s">
         <v>143</v>
       </c>
       <c r="C44" s="5"/>
@@ -3303,7 +3311,7 @@
       <c r="A45" s="1">
         <v>2</v>
       </c>
-      <c r="B45" s="14"/>
+      <c r="B45" s="16"/>
       <c r="C45" s="7" t="s">
         <v>86</v>
       </c>
@@ -3324,8 +3332,8 @@
       </c>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B46" s="14"/>
-      <c r="C46" s="13" t="s">
+      <c r="B46" s="16"/>
+      <c r="C46" s="10" t="s">
         <v>87</v>
       </c>
       <c r="D46" s="1" t="s">
@@ -3334,13 +3342,13 @@
       <c r="E46" s="1">
         <v>2</v>
       </c>
-      <c r="F46" s="13">
+      <c r="F46" s="10">
         <v>16</v>
       </c>
-      <c r="G46" s="16" t="s">
+      <c r="G46" s="12" t="s">
         <v>187</v>
       </c>
-      <c r="H46" s="16" t="s">
+      <c r="H46" s="12" t="s">
         <v>188</v>
       </c>
     </row>
@@ -3348,7 +3356,7 @@
       <c r="C47" s="5"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B48" s="14" t="s">
+      <c r="B48" s="16" t="s">
         <v>109</v>
       </c>
       <c r="C48" s="5"/>
@@ -3369,7 +3377,7 @@
       <c r="A49" s="1">
         <v>3</v>
       </c>
-      <c r="B49" s="14"/>
+      <c r="B49" s="16"/>
       <c r="C49" s="7" t="s">
         <v>86</v>
       </c>
@@ -3387,8 +3395,8 @@
       </c>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B50" s="14"/>
-      <c r="C50" s="13" t="s">
+      <c r="B50" s="16"/>
+      <c r="C50" s="10" t="s">
         <v>87</v>
       </c>
       <c r="D50" s="1" t="s">
@@ -3397,10 +3405,10 @@
       <c r="E50" s="1">
         <v>2</v>
       </c>
-      <c r="F50" s="13">
+      <c r="F50" s="10">
         <v>16</v>
       </c>
-      <c r="G50" s="16" t="s">
+      <c r="G50" s="12" t="s">
         <v>96</v>
       </c>
     </row>
@@ -3408,7 +3416,7 @@
       <c r="C51" s="5"/>
     </row>
     <row r="52" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B52" s="14" t="s">
+      <c r="B52" s="16" t="s">
         <v>144</v>
       </c>
       <c r="C52" s="5"/>
@@ -3424,13 +3432,13 @@
       <c r="G52" s="8" t="s">
         <v>169</v>
       </c>
-      <c r="H52" s="15" t="s">
+      <c r="H52" s="11" t="s">
         <v>178</v>
       </c>
-      <c r="I52" s="15" t="s">
+      <c r="I52" s="11" t="s">
         <v>110</v>
       </c>
-      <c r="J52" s="15" t="s">
+      <c r="J52" s="11" t="s">
         <v>179</v>
       </c>
     </row>
@@ -3438,7 +3446,7 @@
       <c r="A53" s="1">
         <v>4</v>
       </c>
-      <c r="B53" s="14"/>
+      <c r="B53" s="16"/>
       <c r="C53" s="7" t="s">
         <v>86</v>
       </c>
@@ -3454,19 +3462,19 @@
       <c r="G53" s="8" t="s">
         <v>111</v>
       </c>
-      <c r="H53" s="15" t="s">
+      <c r="H53" s="11" t="s">
         <v>158</v>
       </c>
-      <c r="I53" s="15" t="s">
+      <c r="I53" s="11" t="s">
         <v>158</v>
       </c>
-      <c r="J53" s="15" t="s">
+      <c r="J53" s="11" t="s">
         <v>158</v>
       </c>
     </row>
     <row r="54" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B54" s="14"/>
-      <c r="C54" s="13" t="s">
+      <c r="B54" s="16"/>
+      <c r="C54" s="10" t="s">
         <v>87</v>
       </c>
       <c r="D54" s="1" t="s">
@@ -3475,10 +3483,10 @@
       <c r="E54" s="1">
         <v>2</v>
       </c>
-      <c r="F54" s="13">
+      <c r="F54" s="10">
         <v>17</v>
       </c>
-      <c r="G54" s="16" t="s">
+      <c r="G54" s="12" t="s">
         <v>96</v>
       </c>
     </row>
@@ -3486,7 +3494,7 @@
       <c r="C55" s="5"/>
     </row>
     <row r="56" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B56" s="14" t="s">
+      <c r="B56" s="16" t="s">
         <v>113</v>
       </c>
       <c r="C56" s="5"/>
@@ -3507,7 +3515,7 @@
       <c r="A57" s="1">
         <v>6</v>
       </c>
-      <c r="B57" s="14"/>
+      <c r="B57" s="16"/>
       <c r="C57" s="7" t="s">
         <v>86</v>
       </c>
@@ -3525,8 +3533,8 @@
       </c>
     </row>
     <row r="58" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B58" s="14"/>
-      <c r="C58" s="13" t="s">
+      <c r="B58" s="16"/>
+      <c r="C58" s="10" t="s">
         <v>87</v>
       </c>
       <c r="D58" s="1" t="s">
@@ -3535,10 +3543,10 @@
       <c r="E58" s="1">
         <v>2</v>
       </c>
-      <c r="F58" s="13">
+      <c r="F58" s="10">
         <v>18</v>
       </c>
-      <c r="G58" s="16" t="s">
+      <c r="G58" s="12" t="s">
         <v>96</v>
       </c>
     </row>
@@ -3546,7 +3554,7 @@
       <c r="C59" s="5"/>
     </row>
     <row r="60" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B60" s="14" t="s">
+      <c r="B60" s="16" t="s">
         <v>145</v>
       </c>
       <c r="C60" s="5"/>
@@ -3564,7 +3572,7 @@
       <c r="A61" s="1">
         <v>7</v>
       </c>
-      <c r="B61" s="14"/>
+      <c r="B61" s="16"/>
       <c r="C61" s="7" t="s">
         <v>86</v>
       </c>
@@ -3579,8 +3587,8 @@
       </c>
     </row>
     <row r="62" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B62" s="14"/>
-      <c r="C62" s="13" t="s">
+      <c r="B62" s="16"/>
+      <c r="C62" s="10" t="s">
         <v>87</v>
       </c>
       <c r="D62" s="1" t="s">
@@ -3589,19 +3597,19 @@
       <c r="E62" s="1">
         <v>5</v>
       </c>
-      <c r="F62" s="13">
+      <c r="F62" s="10">
         <v>19</v>
       </c>
-      <c r="G62" s="16" t="s">
+      <c r="G62" s="12" t="s">
         <v>187</v>
       </c>
-      <c r="H62" s="16" t="s">
+      <c r="H62" s="12" t="s">
         <v>189</v>
       </c>
-      <c r="I62" s="16" t="s">
+      <c r="I62" s="12" t="s">
         <v>190</v>
       </c>
-      <c r="J62" s="16" t="s">
+      <c r="J62" s="12" t="s">
         <v>191</v>
       </c>
     </row>
@@ -3609,7 +3617,7 @@
       <c r="C63" s="5"/>
     </row>
     <row r="64" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="B64" s="14" t="s">
+      <c r="B64" s="16" t="s">
         <v>114</v>
       </c>
       <c r="C64" s="5"/>
@@ -3630,7 +3638,7 @@
       <c r="A65" s="1">
         <v>8</v>
       </c>
-      <c r="B65" s="14"/>
+      <c r="B65" s="16"/>
       <c r="C65" s="7" t="s">
         <v>135</v>
       </c>
@@ -3648,8 +3656,8 @@
       </c>
     </row>
     <row r="66" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B66" s="14"/>
-      <c r="C66" s="13" t="s">
+      <c r="B66" s="16"/>
+      <c r="C66" s="10" t="s">
         <v>136</v>
       </c>
       <c r="D66" s="1" t="s">
@@ -3658,22 +3666,22 @@
       <c r="E66" s="1" t="s">
         <v>101</v>
       </c>
-      <c r="F66" s="13" t="s">
+      <c r="F66" s="10" t="s">
         <v>116</v>
       </c>
-      <c r="G66" s="16" t="s">
+      <c r="G66" s="12" t="s">
         <v>192</v>
       </c>
-      <c r="H66" s="16" t="s">
+      <c r="H66" s="12" t="s">
         <v>193</v>
       </c>
-      <c r="I66" s="16" t="s">
+      <c r="I66" s="12" t="s">
         <v>194</v>
       </c>
-      <c r="J66" s="16" t="s">
+      <c r="J66" s="12" t="s">
         <v>195</v>
       </c>
-      <c r="K66" s="16" t="s">
+      <c r="K66" s="12" t="s">
         <v>119</v>
       </c>
     </row>
@@ -3681,7 +3689,7 @@
       <c r="C67" s="5"/>
     </row>
     <row r="68" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B68" s="14" t="s">
+      <c r="B68" s="16" t="s">
         <v>146</v>
       </c>
       <c r="C68" s="5"/>
@@ -3694,10 +3702,10 @@
       <c r="F68" s="5" t="s">
         <v>85</v>
       </c>
-      <c r="G68" s="15" t="s">
+      <c r="G68" s="11" t="s">
         <v>120</v>
       </c>
-      <c r="H68" s="15" t="s">
+      <c r="H68" s="11" t="s">
         <v>122</v>
       </c>
     </row>
@@ -3705,7 +3713,7 @@
       <c r="A69" s="1">
         <v>9</v>
       </c>
-      <c r="B69" s="14"/>
+      <c r="B69" s="16"/>
       <c r="C69" s="7" t="s">
         <v>137</v>
       </c>
@@ -3718,16 +3726,16 @@
       <c r="F69" s="7" t="s">
         <v>123</v>
       </c>
-      <c r="G69" s="15" t="s">
+      <c r="G69" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="H69" s="15" t="s">
+      <c r="H69" s="11" t="s">
         <v>101</v>
       </c>
     </row>
     <row r="70" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B70" s="14"/>
-      <c r="C70" s="13" t="s">
+      <c r="B70" s="16"/>
+      <c r="C70" s="10" t="s">
         <v>138</v>
       </c>
       <c r="D70" s="1" t="s">
@@ -3736,13 +3744,13 @@
       <c r="E70" s="1" t="s">
         <v>153</v>
       </c>
-      <c r="F70" s="13" t="s">
+      <c r="F70" s="10" t="s">
         <v>123</v>
       </c>
-      <c r="G70" s="16" t="s">
+      <c r="G70" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="H70" s="16" t="s">
+      <c r="H70" s="12" t="s">
         <v>196</v>
       </c>
     </row>
@@ -3750,7 +3758,7 @@
       <c r="C71" s="5"/>
     </row>
     <row r="72" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B72" s="14" t="s">
+      <c r="B72" s="16" t="s">
         <v>124</v>
       </c>
       <c r="C72" s="5"/>
@@ -3766,7 +3774,7 @@
       <c r="G72" s="8" t="s">
         <v>170</v>
       </c>
-      <c r="H72" s="15" t="s">
+      <c r="H72" s="11" t="s">
         <v>197</v>
       </c>
     </row>
@@ -3774,7 +3782,7 @@
       <c r="A73" s="1">
         <v>10</v>
       </c>
-      <c r="B73" s="14"/>
+      <c r="B73" s="16"/>
       <c r="C73" s="7" t="s">
         <v>139</v>
       </c>
@@ -3790,13 +3798,13 @@
       <c r="G73" s="8">
         <v>0</v>
       </c>
-      <c r="H73" s="15" t="s">
+      <c r="H73" s="11" t="s">
         <v>198</v>
       </c>
     </row>
     <row r="74" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B74" s="14"/>
-      <c r="C74" s="13" t="s">
+      <c r="B74" s="16"/>
+      <c r="C74" s="10" t="s">
         <v>140</v>
       </c>
       <c r="D74" s="1" t="s">
@@ -3805,10 +3813,10 @@
       <c r="E74" s="1">
         <v>2</v>
       </c>
-      <c r="F74" s="13" t="s">
+      <c r="F74" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="G74" s="16" t="s">
+      <c r="G74" s="12" t="s">
         <v>187</v>
       </c>
     </row>
@@ -3816,7 +3824,7 @@
       <c r="C75" s="5"/>
     </row>
     <row r="76" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B76" s="14" t="s">
+      <c r="B76" s="16" t="s">
         <v>147</v>
       </c>
       <c r="C76" s="5"/>
@@ -3837,7 +3845,7 @@
       <c r="A77" s="1">
         <v>11</v>
       </c>
-      <c r="B77" s="14"/>
+      <c r="B77" s="16"/>
       <c r="C77" s="7" t="s">
         <v>139</v>
       </c>
@@ -3855,8 +3863,8 @@
       </c>
     </row>
     <row r="78" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B78" s="14"/>
-      <c r="C78" s="13" t="s">
+      <c r="B78" s="16"/>
+      <c r="C78" s="10" t="s">
         <v>140</v>
       </c>
       <c r="D78" s="1" t="s">
@@ -3865,16 +3873,16 @@
       <c r="E78" s="1">
         <v>2</v>
       </c>
-      <c r="F78" s="13" t="s">
+      <c r="F78" s="10" t="s">
         <v>125</v>
       </c>
-      <c r="G78" s="16" t="s">
+      <c r="G78" s="12" t="s">
         <v>96</v>
       </c>
-      <c r="H78" s="16" t="s">
+      <c r="H78" s="12" t="s">
         <v>180</v>
       </c>
-      <c r="I78" s="16" t="s">
+      <c r="I78" s="12" t="s">
         <v>181</v>
       </c>
     </row>
@@ -3882,7 +3890,7 @@
       <c r="C79" s="5"/>
     </row>
     <row r="80" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B80" s="14" t="s">
+      <c r="B80" s="16" t="s">
         <v>148</v>
       </c>
       <c r="C80" s="5"/>
@@ -3898,18 +3906,21 @@
       <c r="G80" s="8" t="s">
         <v>171</v>
       </c>
-      <c r="H80" s="15" t="s">
+      <c r="H80" s="11" t="s">
         <v>182</v>
       </c>
-      <c r="I80" s="15" t="s">
+      <c r="I80" s="11" t="s">
         <v>183</v>
       </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="J80" s="11" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A81" s="1">
         <v>12</v>
       </c>
-      <c r="B81" s="14"/>
+      <c r="B81" s="16"/>
       <c r="C81" s="7" t="s">
         <v>139</v>
       </c>
@@ -3925,16 +3936,19 @@
       <c r="G81" s="8">
         <v>2</v>
       </c>
-      <c r="H81" s="15" t="s">
+      <c r="H81" s="11" t="s">
         <v>101</v>
       </c>
-      <c r="I81" s="15" t="s">
+      <c r="I81" s="11" t="s">
         <v>184</v>
       </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="B82" s="14"/>
-      <c r="C82" s="13" t="s">
+      <c r="J81" s="11" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="B82" s="16"/>
+      <c r="C82" s="10" t="s">
         <v>140</v>
       </c>
       <c r="D82" s="1" t="s">
@@ -3943,7 +3957,7 @@
       <c r="E82" s="1">
         <v>2</v>
       </c>
-      <c r="F82" s="13" t="s">
+      <c r="F82" s="10" t="s">
         <v>125</v>
       </c>
       <c r="G82" s="1" t="s">
@@ -3952,6 +3966,17 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="B4:B6"/>
+    <mergeCell ref="B8:B10"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="B20:B22"/>
+    <mergeCell ref="B24:B26"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B28:B30"/>
+    <mergeCell ref="B32:B34"/>
+    <mergeCell ref="B36:B38"/>
+    <mergeCell ref="B40:B42"/>
+    <mergeCell ref="B64:B66"/>
     <mergeCell ref="B76:B78"/>
     <mergeCell ref="B80:B82"/>
     <mergeCell ref="B68:B70"/>
@@ -3961,17 +3986,6 @@
     <mergeCell ref="B52:B54"/>
     <mergeCell ref="B56:B58"/>
     <mergeCell ref="B60:B62"/>
-    <mergeCell ref="B28:B30"/>
-    <mergeCell ref="B32:B34"/>
-    <mergeCell ref="B36:B38"/>
-    <mergeCell ref="B40:B42"/>
-    <mergeCell ref="B64:B66"/>
-    <mergeCell ref="B4:B6"/>
-    <mergeCell ref="B8:B10"/>
-    <mergeCell ref="B16:B18"/>
-    <mergeCell ref="B20:B22"/>
-    <mergeCell ref="B24:B26"/>
-    <mergeCell ref="B12:B14"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
